--- a/pred_ohlcv/54_23/2020-01-11 ELF ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2020-01-11 ELF ohlcv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>open</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>low</t>
+  </si>
+  <si>
+    <t>OBV</t>
   </si>
   <si>
     <t>trade_state</t>
@@ -386,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,8 +411,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -426,10 +432,13 @@
         <v>62</v>
       </c>
       <c r="F2">
+        <v>9372.9486</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -446,10 +455,13 @@
         <v>63</v>
       </c>
       <c r="F3">
+        <v>3296.5229</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -466,10 +478,13 @@
         <v>62</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>14623.9606</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -486,10 +501,13 @@
         <v>62.2</v>
       </c>
       <c r="F5">
+        <v>40.3225</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -506,10 +524,13 @@
         <v>62</v>
       </c>
       <c r="F6">
+        <v>298.3603</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -526,10 +547,13 @@
         <v>62.99</v>
       </c>
       <c r="F7">
+        <v>10001.58755357993</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -546,10 +570,13 @@
         <v>62</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>2859.4446</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -566,10 +593,13 @@
         <v>61.6</v>
       </c>
       <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>10001.5876</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -586,10 +616,13 @@
         <v>62.18</v>
       </c>
       <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>851.3225</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -606,10 +639,13 @@
         <v>61.8</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>293.0375</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -626,10 +662,13 @@
         <v>61.71</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>31082</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -646,10 +685,13 @@
         <v>62.18</v>
       </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>40.3225</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -666,10 +708,13 @@
         <v>61.82</v>
       </c>
       <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>15865.7129</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -686,10 +731,13 @@
         <v>62</v>
       </c>
       <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>40.3225</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -706,10 +754,13 @@
         <v>61.8</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>616.1848</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -726,10 +777,13 @@
         <v>61.8</v>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>466.8097</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -746,10 +800,13 @@
         <v>61.85</v>
       </c>
       <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>534.1602</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -766,10 +823,13 @@
         <v>61.7</v>
       </c>
       <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>2140.6865</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -786,10 +846,13 @@
         <v>61.85</v>
       </c>
       <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>7874.4427</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -806,10 +869,13 @@
         <v>61.89</v>
       </c>
       <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>7171.1514</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -826,10 +892,13 @@
         <v>62</v>
       </c>
       <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>25965.3206</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -846,10 +915,13 @@
         <v>62.8</v>
       </c>
       <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>8754</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -866,10 +938,13 @@
         <v>63.5</v>
       </c>
       <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>8185.763420522506</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -886,10 +961,13 @@
         <v>62.7</v>
       </c>
       <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>466.8097</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -906,10 +984,13 @@
         <v>63</v>
       </c>
       <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -926,10 +1007,13 @@
         <v>63</v>
       </c>
       <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>3755.829</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -946,10 +1030,13 @@
         <v>63.3</v>
       </c>
       <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>935.3915</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -966,10 +1053,13 @@
         <v>63.4</v>
       </c>
       <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>25695.2689794775</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -986,10 +1076,13 @@
         <v>63.5</v>
       </c>
       <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>16584.62842052251</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1006,10 +1099,13 @@
         <v>63.5</v>
       </c>
       <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>7246.4838</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1026,10 +1122,13 @@
         <v>63.31</v>
       </c>
       <c r="F32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>59108.6037794775</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1046,10 +1145,13 @@
         <v>64.23999999999999</v>
       </c>
       <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>28980.2987</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1066,10 +1168,13 @@
         <v>64.2</v>
       </c>
       <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>25068.9268</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1086,10 +1191,13 @@
         <v>64.5</v>
       </c>
       <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>11544.176</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1106,10 +1214,13 @@
         <v>64.5</v>
       </c>
       <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>10364.1109</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1126,10 +1237,13 @@
         <v>64.56999999999999</v>
       </c>
       <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>8742.8647</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1146,10 +1260,13 @@
         <v>64.56999999999999</v>
       </c>
       <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>360.4601</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1166,10 +1283,13 @@
         <v>64.77</v>
       </c>
       <c r="F39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>137.6298</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1186,10 +1306,13 @@
         <v>64.8</v>
       </c>
       <c r="F40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>44865.7533</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1206,10 +1329,13 @@
         <v>65</v>
       </c>
       <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>18062.8749</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1226,10 +1352,13 @@
         <v>65.5</v>
       </c>
       <c r="F42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>15307.2034</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1246,10 +1375,13 @@
         <v>65.59999999999999</v>
       </c>
       <c r="F43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>85275.8412</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1266,10 +1398,13 @@
         <v>65.98999999999999</v>
       </c>
       <c r="F44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>54082.2206</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1286,10 +1421,13 @@
         <v>66.2</v>
       </c>
       <c r="F45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>64570.6316</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1306,10 +1444,13 @@
         <v>66.09999999999999</v>
       </c>
       <c r="F46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>21498.8202</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1326,10 +1467,13 @@
         <v>65.90000000000001</v>
       </c>
       <c r="F47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>18503.89396992481</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1346,10 +1490,13 @@
         <v>65.59999999999999</v>
       </c>
       <c r="F48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>2835.7244</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1366,10 +1513,13 @@
         <v>65.5</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>12783.6724</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1386,10 +1536,13 @@
         <v>66.2</v>
       </c>
       <c r="F50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>47289.5243</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1406,10 +1559,13 @@
         <v>66.7</v>
       </c>
       <c r="F51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>272.2</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1426,10 +1582,13 @@
         <v>65.29000000000001</v>
       </c>
       <c r="F52">
+        <v>14563.3089</v>
+      </c>
+      <c r="G52">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1446,10 +1605,13 @@
         <v>65.7</v>
       </c>
       <c r="F53">
+        <v>8322.700800000001</v>
+      </c>
+      <c r="G53">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1466,10 +1628,13 @@
         <v>65.70999999999999</v>
       </c>
       <c r="F54">
+        <v>21.25</v>
+      </c>
+      <c r="G54">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1486,10 +1651,13 @@
         <v>65.70999999999999</v>
       </c>
       <c r="F55">
+        <v>4450.9366</v>
+      </c>
+      <c r="G55">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1506,10 +1674,13 @@
         <v>65.31999999999999</v>
       </c>
       <c r="F56">
+        <v>31875.4998</v>
+      </c>
+      <c r="G56">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1526,10 +1697,13 @@
         <v>65.31</v>
       </c>
       <c r="F57">
+        <v>8316.0083</v>
+      </c>
+      <c r="G57">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1546,10 +1720,13 @@
         <v>65.3</v>
       </c>
       <c r="F58">
+        <v>22287.5667</v>
+      </c>
+      <c r="G58">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1566,10 +1743,13 @@
         <v>65.3</v>
       </c>
       <c r="F59">
+        <v>26064.2921</v>
+      </c>
+      <c r="G59">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1586,10 +1766,13 @@
         <v>65.40000000000001</v>
       </c>
       <c r="F60">
+        <v>11857.5751</v>
+      </c>
+      <c r="G60">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1606,10 +1789,13 @@
         <v>65.40000000000001</v>
       </c>
       <c r="F61">
+        <v>14803.931</v>
+      </c>
+      <c r="G61">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1626,10 +1812,13 @@
         <v>65.40000000000001</v>
       </c>
       <c r="F62">
+        <v>36726.9309</v>
+      </c>
+      <c r="G62">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1646,10 +1835,13 @@
         <v>66</v>
       </c>
       <c r="F63">
+        <v>18</v>
+      </c>
+      <c r="G63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1666,10 +1858,13 @@
         <v>65.40000000000001</v>
       </c>
       <c r="F64">
+        <v>9638.735500000001</v>
+      </c>
+      <c r="G64">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1686,10 +1881,13 @@
         <v>65.40000000000001</v>
       </c>
       <c r="F65">
+        <v>2217.8986</v>
+      </c>
+      <c r="G65">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1706,10 +1904,13 @@
         <v>65.05</v>
       </c>
       <c r="F66">
+        <v>24474.8824</v>
+      </c>
+      <c r="G66">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1726,10 +1927,13 @@
         <v>64.31999999999999</v>
       </c>
       <c r="F67">
+        <v>5165.6167</v>
+      </c>
+      <c r="G67">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1746,10 +1950,13 @@
         <v>64.31999999999999</v>
       </c>
       <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>24145.8227</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1766,10 +1973,13 @@
         <v>64.33</v>
       </c>
       <c r="F69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>69133.9396</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1786,10 +1996,13 @@
         <v>64.34</v>
       </c>
       <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>70442.53109999999</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1806,10 +2019,13 @@
         <v>64.33</v>
       </c>
       <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>14637.9724</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1826,10 +2042,13 @@
         <v>64.31999999999999</v>
       </c>
       <c r="F72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>1621.9409</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1846,10 +2065,13 @@
         <v>64.23</v>
       </c>
       <c r="F73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>5344.7822</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1866,10 +2088,13 @@
         <v>64.01000000000001</v>
       </c>
       <c r="F74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>10282.4966</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1886,10 +2111,13 @@
         <v>64.40000000000001</v>
       </c>
       <c r="F75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>7232</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1906,10 +2134,13 @@
         <v>64</v>
       </c>
       <c r="F76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>8600.3853</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1926,10 +2157,13 @@
         <v>64.59</v>
       </c>
       <c r="F77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>4779.4338</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1946,10 +2180,13 @@
         <v>64.01000000000001</v>
       </c>
       <c r="F78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>10441.7105</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1966,10 +2203,13 @@
         <v>64</v>
       </c>
       <c r="F79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>15153.6256</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1986,10 +2226,13 @@
         <v>64.09999999999999</v>
       </c>
       <c r="F80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>12990.9674</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2006,10 +2249,13 @@
         <v>64.23999999999999</v>
       </c>
       <c r="F81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>7283.2293</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2026,10 +2272,13 @@
         <v>64.12</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>7800.6752</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2046,10 +2295,13 @@
         <v>64.5</v>
       </c>
       <c r="F83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>1103.2461</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2066,10 +2318,13 @@
         <v>64.20999999999999</v>
       </c>
       <c r="F84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>684.111</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2086,10 +2341,13 @@
         <v>64.2</v>
       </c>
       <c r="F85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>5000</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2106,10 +2364,13 @@
         <v>64.20999999999999</v>
       </c>
       <c r="F86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2126,10 +2387,13 @@
         <v>64.01000000000001</v>
       </c>
       <c r="F87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>5725.3476</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2146,10 +2410,13 @@
         <v>64.40000000000001</v>
       </c>
       <c r="F88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>1089.8981</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2166,10 +2433,13 @@
         <v>64.3</v>
       </c>
       <c r="F89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>754.625</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2186,10 +2456,13 @@
         <v>64.01000000000001</v>
       </c>
       <c r="F90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>38739.5006</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2206,10 +2479,13 @@
         <v>64.67</v>
       </c>
       <c r="F91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>1133.5351</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2226,10 +2502,13 @@
         <v>64.67</v>
       </c>
       <c r="F92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>1720.1545</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2246,10 +2525,13 @@
         <v>64</v>
       </c>
       <c r="F93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>62.9769</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2266,10 +2548,13 @@
         <v>63.9</v>
       </c>
       <c r="F94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>2003.601</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2286,10 +2571,13 @@
         <v>64</v>
       </c>
       <c r="F95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>635.1905</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2306,10 +2594,13 @@
         <v>64</v>
       </c>
       <c r="F96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2326,10 +2617,13 @@
         <v>63.53</v>
       </c>
       <c r="F97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>10947.6067</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2346,10 +2640,13 @@
         <v>64</v>
       </c>
       <c r="F98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>2461.8998</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2366,10 +2663,13 @@
         <v>64.65000000000001</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>1359.9342</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2386,10 +2686,13 @@
         <v>64.65000000000001</v>
       </c>
       <c r="F100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>1351.2543</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2406,10 +2709,13 @@
         <v>64.86</v>
       </c>
       <c r="F101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2426,10 +2732,13 @@
         <v>64.86</v>
       </c>
       <c r="F102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2446,10 +2755,13 @@
         <v>64.86</v>
       </c>
       <c r="F103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>11345.9082</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2466,10 +2778,13 @@
         <v>64.88</v>
       </c>
       <c r="F104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>1500</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2486,10 +2801,13 @@
         <v>64.90000000000001</v>
       </c>
       <c r="F105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>21500</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2506,10 +2824,13 @@
         <v>65</v>
       </c>
       <c r="F106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>789.8739</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2526,6 +2847,9 @@
         <v>65</v>
       </c>
       <c r="F107">
+        <v>10000</v>
+      </c>
+      <c r="G107">
         <v>0</v>
       </c>
     </row>
